--- a/email.xlsx
+++ b/email.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\snkim\WorkShop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김 태찬\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0563FD51-BB96-4502-851E-F6D30FB62AE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406DEB54-55DD-4918-8050-D25423EC7384}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="2510" windowWidth="17420" windowHeight="6220" activeTab="3" xr2:uid="{C178B950-C840-4C45-B6D3-B4F1634E5398}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="18440" windowHeight="5510" activeTab="3" xr2:uid="{C178B950-C840-4C45-B6D3-B4F1634E5398}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>6-core</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +277,14 @@
   </si>
   <si>
     <t>taabera@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feleke Fanta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feleke.fanta.m@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,14 +576,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1166,7 +1174,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1174,7 +1182,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1222,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75CF84B-0AA6-4814-ABEF-5A2967A3E6F8}">
-  <dimension ref="C7:D13"/>
+  <dimension ref="C7:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1238,7 +1246,7 @@
       <c r="C7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1246,7 +1254,7 @@
       <c r="C8" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1254,7 +1262,7 @@
       <c r="C9" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1262,7 +1270,7 @@
       <c r="C10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1270,12 +1278,12 @@
       <c r="C11" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1283,8 +1291,16 @@
       <c r="C13" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1297,8 +1313,9 @@
     <hyperlink ref="D11" r:id="rId5" xr:uid="{0DBA8FB8-B520-48AF-AD5B-F3DBD9503967}"/>
     <hyperlink ref="D12" r:id="rId6" xr:uid="{DA219F6C-88D3-43C4-9DE1-1B33129B934F}"/>
     <hyperlink ref="D13" r:id="rId7" xr:uid="{BD02D81A-0297-462B-B1F6-00F00B57E220}"/>
+    <hyperlink ref="D14" r:id="rId8" xr:uid="{A5CE3A02-0F6F-4AE2-8C16-0477B1D22866}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>